--- a/xlsx/a69_f23_aUPPachuca.xlsx
+++ b/xlsx/a69_f23_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\1er trimestre 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -126,14 +126,14 @@
     <t>Dirección de Comunicación Social (UPP)</t>
   </si>
   <si>
-    <t>La Universidad Politécnica no tiene autorizados recursos para la partida 36101, como se indica en los Lineamientos Técnicos Generales, sin embargo para realizar la difusión de la oferta Educativa se tiene contemplada la partida  361002 Impresiones y Publicaciones Oficiales.</t>
+    <t>La Universidad Politécnica no tiene autorizados recursos para la partida 36101, como se indica en los Lineamientos Técnicos Generales, sin embargo para realizar la difusión de la oferta Educativa se tiene contemplada la partida  361002 Impresiones y Publicaciones Oficiales.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -169,6 +169,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -193,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,20 +222,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -239,8 +253,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,10 +265,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -561,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +596,7 @@
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="42" customWidth="1"/>
+    <col min="10" max="10" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -728,29 +748,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="4">
-        <v>43831</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3" t="s">
+    <row r="8" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="6">
-        <v>43961</v>
+        <v>44298</v>
       </c>
       <c r="I8" s="6">
-        <v>43961</v>
-      </c>
-      <c r="J8" s="2" t="s">
+        <v>44298</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>35</v>
       </c>
     </row>

--- a/xlsx/a69_f23_aUPPachuca.xlsx
+++ b/xlsx/a69_f23_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -133,17 +128,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,21 +150,13 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,17 +169,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE1E1E1"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -233,25 +208,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -259,25 +232,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,39 +274,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,166 +385,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -581,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,8 +542,8 @@
     <col min="6" max="6" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="53.140625" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -605,38 +552,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -670,7 +617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -703,18 +650,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -748,29 +695,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="6">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44561</v>
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44926</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="6">
-        <v>44298</v>
-      </c>
-      <c r="I8" s="6">
-        <v>44298</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="H8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -785,6 +732,6 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f23_aUPPachuca.xlsx
+++ b/xlsx/a69_f23_aUPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6975"/>
+    <workbookView xWindow="750" yWindow="540" windowWidth="13815" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -154,6 +154,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -174,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,17 +199,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -221,15 +211,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,14 +231,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,39 +268,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,142 +379,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -528,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +561,7 @@
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55" customWidth="1"/>
+    <col min="10" max="10" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -552,38 +570,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -617,7 +635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -650,18 +668,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -695,29 +713,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44926</v>
+    <row r="8" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45291</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="H8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -732,6 +750,5 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>